--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>TomTatLuanVan</t>
+  </si>
+  <si>
+    <t>ALMOST THERE. FINISH LATER</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>ALMOST THERE. FINISH LATER</t>
+  </si>
+  <si>
+    <t>MoDau</t>
+  </si>
+  <si>
+    <t>C1-GioiThieu</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE DONE. MISSING ALGORITHM</t>
   </si>
 </sst>
 </file>
@@ -387,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +407,7 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,6 +461,34 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -54,7 +54,10 @@
     <t>C1-GioiThieu</t>
   </si>
   <si>
-    <t>ARCHITECTURE DONE. MISSING ALGORITHM</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>CHECKING LATER</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>CHECKING LATER</t>
+  </si>
+  <si>
+    <t>C2-Cautruc</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +500,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>C3-Equation</t>
+  </si>
+  <si>
+    <t>INIT</t>
   </si>
 </sst>
 </file>
@@ -99,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,21 +420,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -427,94 +443,133 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -75,7 +75,7 @@
     <t>C3-Equation</t>
   </si>
   <si>
-    <t>INIT</t>
+    <t>C4-Algorithm</t>
   </si>
 </sst>
 </file>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,26 +549,40 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9">
-        <f>SUM(C2:C8)</f>
-        <v>27</v>
+      <c r="B10" s="2"/>
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>C4-Algorithm</t>
+  </si>
+  <si>
+    <t>INIT</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +571,9 @@
       </c>
       <c r="D9" t="s">
         <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -78,7 +78,7 @@
     <t>C4-Algorithm</t>
   </si>
   <si>
-    <t>INIT</t>
+    <t>FINISH KALMAN</t>
   </si>
 </sst>
 </file>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -78,7 +78,7 @@
     <t>C4-Algorithm</t>
   </si>
   <si>
-    <t>FINISH KALMAN</t>
+    <t>FINISH PATHLOSS, HALF PSO</t>
   </si>
 </sst>
 </file>
@@ -569,6 +569,9 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -583,7 +586,7 @@
       <c r="B10" s="2"/>
       <c r="C10">
         <f>SUM(C2:C9)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -78,7 +78,7 @@
     <t>C4-Algorithm</t>
   </si>
   <si>
-    <t>FINISH PATHLOSS, HALF PSO</t>
+    <t>C5-ImproveRSSI</t>
   </si>
 </sst>
 </file>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,28 +570,42 @@
         <v>19</v>
       </c>
       <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10">
-        <f>SUM(C2:C9)</f>
-        <v>39</v>
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>C5-ImproveRSSI</t>
+  </si>
+  <si>
+    <t>FINISH INTRODUCTION</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,11 +589,14 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -600,7 +606,7 @@
       <c r="B11" s="2"/>
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -81,7 +81,7 @@
     <t>C5-ImproveRSSI</t>
   </si>
   <si>
-    <t>FINISH INTRODUCTION</t>
+    <t>FINISH FORMULA</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -606,7 +606,7 @@
       <c r="B11" s="2"/>
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -81,7 +81,7 @@
     <t>C5-ImproveRSSI</t>
   </si>
   <si>
-    <t>FINISH FORMULA</t>
+    <t>UPDATE FORMULA</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>C5-ImproveRSSI</t>
-  </si>
-  <si>
-    <t>UPDATE FORMULA</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,7 +603,7 @@
       <c r="B11" s="2"/>
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>C5-ImproveRSSI</t>
+  </si>
+  <si>
+    <t>C6-BlockDiagram</t>
+  </si>
+  <si>
+    <t>INIT</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,18 +603,32 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11">
-        <f>SUM(C2:C10)</f>
+      <c r="B12" s="2"/>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>C6-BlockDiagram</t>
-  </si>
-  <si>
-    <t>INIT</t>
   </si>
 </sst>
 </file>
@@ -432,7 +429,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,11 +606,14 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
       <c r="B12" s="2"/>
       <c r="C12">
         <f>SUM(C2:C11)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>C6-BlockDiagram</t>
+  </si>
+  <si>
+    <t>C7-Result</t>
+  </si>
+  <si>
+    <t>INIT</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +471,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -476,6 +485,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -507,6 +519,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -617,18 +632,35 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12">
-        <f>SUM(C2:C11)</f>
+      <c r="B13" s="2"/>
+      <c r="C13">
+        <f>SUM(C2:C12)</f>
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>C7-Result</t>
-  </si>
-  <si>
-    <t>INIT</t>
   </si>
 </sst>
 </file>
@@ -435,7 +432,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,13 +636,13 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,7 +652,7 @@
       <c r="B13" s="2"/>
       <c r="C13">
         <f>SUM(C2:C12)</f>
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,13 +483,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
       <c r="B13" s="2"/>
       <c r="C13">
         <f>SUM(C2:C12)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
